--- a/sample/Findings.xlsx
+++ b/sample/Findings.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
   <si>
-    <t>Profile Name</t>
+    <t>Profile</t>
   </si>
   <si>
     <t>Title</t>
@@ -35,33 +35,57 @@
     <t>Detectify Demo</t>
   </si>
   <si>
+    <t>Uploadify Flash XSS</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/js/uploadify/uploadify.swf</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>SVN Source Code Disclosure</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/.svn/text-base/index.php.svn-base</t>
+  </si>
+  <si>
+    <t>SVN Repository Exposure</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com//.svn/wc.db</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/admin/.svn/entries</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/flash/.svn/entries</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/.svn/wc.db</t>
+  </si>
+  <si>
+    <t>Remote Code Execution (RCE)</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/code_execution.php</t>
+  </si>
+  <si>
+    <t>Password Disclosure</t>
+  </si>
+  <si>
     <t>HTML Injection</t>
   </si>
   <si>
     <t>http://detectify-demo.com/xfs_frame.php</t>
   </si>
   <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
     <t>http://detectify-demo.com/xfs.php</t>
   </si>
   <si>
     <t>Cross Site Scripting (XSS)</t>
   </si>
   <si>
-    <t>Remote Code Execution (RCE)</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/code_execution.php</t>
-  </si>
-  <si>
-    <t>Uploadify Flash XSS</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/js/uploadify/uploadify.swf</t>
-  </si>
-  <si>
     <t>CVE-2014-1869: ZeroClipboard XSS</t>
   </si>
   <si>
@@ -69,30 +93,6 @@
   </si>
   <si>
     <t>CVE-2013-1808: ZeroClipboard XSS</t>
-  </si>
-  <si>
-    <t>SVN Repository Exposure</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com//.svn/wc.db</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/admin/.svn/entries</t>
-  </si>
-  <si>
-    <t>Password Disclosure</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/.svn/text-base/index.php.svn-base</t>
-  </si>
-  <si>
-    <t>SVN Source Code Disclosure</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/flash/.svn/entries</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/.svn/wc.db</t>
   </si>
   <si>
     <t>Asset could not be resolved on the last analysis, no report available</t>
@@ -496,7 +496,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -510,13 +510,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -564,10 +564,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>6.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -578,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -595,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -612,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>6.4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -629,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -646,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -663,13 +663,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
         <v>6.4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -680,13 +680,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -697,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>24</v>
@@ -714,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>

--- a/sample/Findings.xlsx
+++ b/sample/Findings.xlsx
@@ -35,64 +35,64 @@
     <t>Detectify Demo</t>
   </si>
   <si>
+    <t>CVE-2013-1808: ZeroClipboard XSS</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/img/ZeroClipboard.swf</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>CVE-2014-1869: ZeroClipboard XSS</t>
+  </si>
+  <si>
+    <t>Cross Site Scripting (XSS)</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/xfs_frame.php</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/xfs.php</t>
+  </si>
+  <si>
+    <t>HTML Injection</t>
+  </si>
+  <si>
+    <t>Password Disclosure</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/.svn/text-base/index.php.svn-base</t>
+  </si>
+  <si>
+    <t>Remote Code Execution (RCE)</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/code_execution.php</t>
+  </si>
+  <si>
+    <t>SVN Repository Exposure</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com//.svn/wc.db</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/admin/.svn/entries</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/flash/.svn/entries</t>
+  </si>
+  <si>
+    <t>http://detectify-demo.com/.svn/wc.db</t>
+  </si>
+  <si>
+    <t>SVN Source Code Disclosure</t>
+  </si>
+  <si>
     <t>Uploadify Flash XSS</t>
   </si>
   <si>
     <t>http://detectify-demo.com/js/uploadify/uploadify.swf</t>
-  </si>
-  <si>
-    <t>2021-05-06</t>
-  </si>
-  <si>
-    <t>SVN Source Code Disclosure</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/.svn/text-base/index.php.svn-base</t>
-  </si>
-  <si>
-    <t>SVN Repository Exposure</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com//.svn/wc.db</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/admin/.svn/entries</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/flash/.svn/entries</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/.svn/wc.db</t>
-  </si>
-  <si>
-    <t>Remote Code Execution (RCE)</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/code_execution.php</t>
-  </si>
-  <si>
-    <t>Password Disclosure</t>
-  </si>
-  <si>
-    <t>HTML Injection</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/xfs_frame.php</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/xfs.php</t>
-  </si>
-  <si>
-    <t>Cross Site Scripting (XSS)</t>
-  </si>
-  <si>
-    <t>CVE-2014-1869: ZeroClipboard XSS</t>
-  </si>
-  <si>
-    <t>http://detectify-demo.com/img/ZeroClipboard.swf</t>
-  </si>
-  <si>
-    <t>CVE-2013-1808: ZeroClipboard XSS</t>
   </si>
   <si>
     <t>Asset could not be resolved on the last analysis, no report available</t>
@@ -513,10 +513,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
@@ -544,13 +544,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -578,13 +578,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>7.8</v>
+        <v>6.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>8</v>
@@ -595,13 +595,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
@@ -612,13 +612,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>8</v>
@@ -629,13 +629,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
@@ -646,13 +646,13 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
@@ -663,13 +663,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
@@ -680,13 +680,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.4</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -700,10 +700,10 @@
         <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
@@ -714,13 +714,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>6.4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>

--- a/sample/Findings.xlsx
+++ b/sample/Findings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Profile</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Score</t>
   </si>
   <si>
+    <t>Severity</t>
+  </si>
+  <si>
     <t>Found At</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
   </si>
   <si>
     <t>CVE-2013-1808: ZeroClipboard XSS</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
   <si>
     <t>http://detectify-demo.com/img/ZeroClipboard.swf</t>
@@ -161,13 +167,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E15" headerRowCount="0" totalsRowShown="0">
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F15" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="6">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
     <tableColumn id="3" name="Column3"/>
     <tableColumn id="4" name="Column4"/>
     <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -458,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,11 +474,12 @@
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,261 +495,306 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>6.4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>6.4</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>6.4</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2">
         <v>6.4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>6.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>6.1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>6.4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>7.8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>6.3</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="2">
         <v>6.3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>7.8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
         <v>7.8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
         <v>6.4</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D5" r:id="rId4"/>
-    <hyperlink ref="D6" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -763,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
